--- a/Django.xlsx
+++ b/Django.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -147,6 +147,12 @@
             field.widget.attrs['disabled'] = 'disabled'
             field.widget.attrs['readonly'] = 'readonly'</t>
     </r>
+  </si>
+  <si>
+    <t>STATICFILES_DIRS = [
+    BASE_DIR / "static",
+]
+STATIC_ROOT = os.path.join(BASE_DIR, "staticfiles")</t>
   </si>
 </sst>
 </file>
@@ -200,9 +206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -511,42 +517,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -562,6 +568,11 @@
       </c>
       <c r="B8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Django.xlsx
+++ b/Django.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -153,6 +153,34 @@
     BASE_DIR / "static",
 ]
 STATIC_ROOT = os.path.join(BASE_DIR, "staticfiles")</t>
+  </si>
+  <si>
+    <t>path('car/', include([
+        path('create/', views.car_create, name='car-create'),
+        path('&lt;int:id&gt;/details/', views.car_details, name='car-details'),
+        path('&lt;int:id&gt;/edit/', views.car_edit, name='car-edit'),
+        path('&lt;int:id&gt;/delete/', views.car_delete, name='car-delete'),
+    ])),</t>
+  </si>
+  <si>
+    <t>def name_validator(value):
+    if not re.match("^[A-Za-z0-9_]*$", value):
+        raise ValidationError('Ensure this value contains only letters, numbers, and underscore.')</t>
+  </si>
+  <si>
+    <t>DATABASES = {
+    "default": {
+        "ENGINE": "django.db.backends.postgresql",
+        "NAME": "exam_prep",
+        "USER": "root",
+        "PASSWORD": "root",
+        "HOST": "127.0.0.1",
+        "PORT": "5432",
+    }
+}</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
   </si>
 </sst>
 </file>
@@ -502,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +603,24 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:XFD2"/>

--- a/Django.xlsx
+++ b/Django.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -181,6 +181,13 @@
   </si>
   <si>
     <t>DATABASE</t>
+  </si>
+  <si>
+    <t>widgets = {
+            'first_name': forms.TextInput(attrs={'placeholder': 'First Name'}),
+            'last_name': forms.TextInput(attrs={'placeholder': 'Last Name'}),
+            'image_url': forms.URLInput(attrs={'placeholder': 'Image URL'}),
+        }</t>
   </si>
 </sst>
 </file>
@@ -530,16 +537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.109375" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
@@ -619,6 +626,11 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Django.xlsx
+++ b/Django.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Framework" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -189,12 +190,120 @@
             'image_url': forms.URLInput(attrs={'placeholder': 'Image URL'}),
         }</t>
   </si>
+  <si>
+    <t>DATABASES = {
+    "default": {
+        "ENGINE": "django.db.backends.postgresql",
+        "NAME": "car_collection",
+        "USER": "postgres",
+        "PASSWORD": "root",
+        "HOST": "127.0.0.1",
+        "PORT": "5433",
+    }
+}</t>
+  </si>
+  <si>
+    <t>class FruitCreateForm(FruitBaseForm):
+    def __init__(self, *args, **kwargs):
+        super().__init__(*args, **kwargs)
+        self.__set_placeholders()
+    def __set_placeholders(self):
+        for field in self.fields.values():
+            field.widget.attrs['placeholder'] = field.label
+            field.label = ""</t>
+  </si>
+  <si>
+    <t>Set Placeholders and remove lables</t>
+  </si>
+  <si>
+    <t>function-based views</t>
+  </si>
+  <si>
+    <t>class-based views</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>def create_profile(request):
+    profile = ProfileModel.objects.first()
+    if request.method == 'POST':
+        form = ProfileCreateForm(request.POST)
+        if form.is_valid():
+            form.save()
+            return redirect('dashboard')
+    else:
+        form = ProfileCreateForm()
+    context = {
+        'profile': profile,
+        'form': form,
+    }
+    return render(request, 'create-profile.html', context)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class ProfileCreateView(CreateView):
+    model = ProfileModel
+    template_name = 'create-profile.html'
+    form_class = ProfileCreateForm
+    def get_success_url(self):
+        return reverse('dashboard')
+</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>class IndexView(TemplateView):
+    template_name = 'index.html'
+    # extra_context = {
+    #     'name': 'Atanas'
+    # }
+    def get_context_data(self, **kwargs):
+        context = super().get_context_data(**kwargs)
+        context['name'] = 'Atanas'  # Can be something retrived from the database
+        context['age'] = '40'
+        return context</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def home_page(request):
+    profile = ProfileModel.objects.first()
+    context = {
+        'profile': profile
+    }
+    return render(request, 'index.html', context)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +318,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +339,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,11 +366,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,8 +403,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
@@ -571,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
@@ -610,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,10 +801,21 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -641,4 +826,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Django.xlsx
+++ b/Django.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Framework" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -189,12 +190,154 @@
             'image_url': forms.URLInput(attrs={'placeholder': 'Image URL'}),
         }</t>
   </si>
+  <si>
+    <t>DATABASES = {
+    "default": {
+        "ENGINE": "django.db.backends.postgresql",
+        "NAME": "car_collection",
+        "USER": "postgres",
+        "PASSWORD": "root",
+        "HOST": "127.0.0.1",
+        "PORT": "5433",
+    }
+}</t>
+  </si>
+  <si>
+    <t>class FruitCreateForm(FruitBaseForm):
+    def __init__(self, *args, **kwargs):
+        super().__init__(*args, **kwargs)
+        self.__set_placeholders()
+    def __set_placeholders(self):
+        for field in self.fields.values():
+            field.widget.attrs['placeholder'] = field.label
+            field.label = ""</t>
+  </si>
+  <si>
+    <t>Set Placeholders and remove lables</t>
+  </si>
+  <si>
+    <t>function-based views</t>
+  </si>
+  <si>
+    <t>class-based views</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>def create_profile(request):
+    profile = ProfileModel.objects.first()
+    if request.method == 'POST':
+        form = ProfileCreateForm(request.POST)
+        if form.is_valid():
+            form.save()
+            return redirect('dashboard')
+    else:
+        form = ProfileCreateForm()
+    context = {
+        'profile': profile,
+        'form': form,
+    }
+    return render(request, 'create-profile.html', context)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class ProfileCreateView(CreateView):
+    model = ProfileModel
+    template_name = 'create-profile.html'
+    form_class = ProfileCreateForm
+    def get_success_url(self):
+        return reverse('dashboard')
+</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>class IndexView(TemplateView):
+    template_name = 'index.html'
+    # extra_context = {
+    #     'name': 'Atanas'
+    # }
+    def get_context_data(self, **kwargs):
+        context = super().get_context_data(**kwargs)
+        context['name'] = 'Atanas'  # Can be something retrived from the database
+        context['age'] = '40'
+        return context</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def home_page(request):
+    profile = ProfileModel.objects.first()
+    context = {
+        'profile': profile
+    }
+    return render(request, 'index.html', context)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>class CarDetailsView(DetailView):
+    context_object_name = 'car'
+    model = CarModel
+    template_name = 'details-car.html'</t>
+  </si>
+  <si>
+    <t>def car_details(request, id):
+    car = CarModel.objects.get(id=id)
+    content = {
+        'car': car,
+        'profile': ProfileModel.objects.first(),
+    }
+    return render(request, 'car-details.html', content)</t>
+  </si>
+  <si>
+    <t>class CarsListView(ListView):
+    context_object_name = 'cars'
+    model = CarModel
+    template_name = 'dashboard.html'
+    def get_context_data(self, **kwargs):
+        context = super().get_context_data(**kwargs)
+        context['owner'] = 'Atanas'
+        return context</t>
+  </si>
+  <si>
+    <t>def catalogue(request):
+    cars = CarModel.objects.all()
+    context = {
+        'cars': cars,
+        'profile': ProfileModel.objects.first(),
+    }
+    return render(request, 'catalogue.html', context)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +352,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +373,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,11 +400,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,6 +437,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
@@ -571,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
@@ -610,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,10 +834,21 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -641,4 +859,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Django.xlsx
+++ b/Django.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8316EAC-0A4C-4090-8A07-850EA407D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Create function </t>
   </si>
@@ -332,11 +333,60 @@
     }
     return render(request, 'catalogue.html', context)</t>
   </si>
+  <si>
+    <t>def car_edit(request, id):
+    car = CarModel.objects.get(id=id)
+    if request.method == 'POST':
+        form = CarCreateForm(request.POST, instance=car)
+        if form.is_valid():
+            form.save()
+            return redirect('catalogue')
+    else:
+        form = CarCreateForm(instance=car)
+    context = {
+        'form': form,
+        'profile': ProfileModel.objects.first(),
+    }
+    return render(request, 'car-edit.html', context)</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>class CarUpdateView(UpdateView):
+    template_name = 'edit-car.html'
+    model = CarModel
+    fields = '__all__'</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>def car_delete(request, id):
+    car = CarModel.objects.get(id=id)
+    if request.method == 'POST':
+        car.delete()
+        return redirect('catalogue')
+    else:
+        form = CarDeleteForm(instance=car)
+    context = {
+        'form': form,
+        'profile': ProfileModel.objects.first(),
+    }
+    return render(request, 'car-delete.html', context)</t>
+  </si>
+  <si>
+    <t>class DeleteCarView(DeleteView):
+    context_object_name = 'car'
+    model = CarModel
+    template_name = 'delete-car.html'
+    success_url = reverse_lazy('dashboard')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,6 +513,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,22 +799,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.109375" customWidth="1"/>
-    <col min="2" max="2" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +822,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,8 +834,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -793,10 +849,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -804,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -812,22 +868,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -838,12 +894,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -862,21 +918,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>22</v>
@@ -885,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187.8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="195.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -896,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
@@ -907,7 +963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
@@ -918,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -928,38 +984,51 @@
       <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
